--- a/data/income_statement/2digits/size/86_IS_MICRO.xlsx
+++ b/data/income_statement/2digits/size/86_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>86-Human health activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>86-Human health activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,881 +841,996 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>920642.80612</v>
+        <v>1029670.11539</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>893086.8547500001</v>
+        <v>1030855.75601</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>1109792.72254</v>
+        <v>1219347.19867</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>1069614.54145</v>
+        <v>1199244.04164</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>1080347.09311</v>
+        <v>1273034.67223</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>1080262.01782</v>
+        <v>1274727.19823</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>1112246.37839</v>
+        <v>1354029.26362</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>1377619.07856</v>
+        <v>1620751.64652</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>1565674.32973</v>
+        <v>1879416.56917</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>3265929.52674</v>
+        <v>3623608.4322</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>3923365.89501</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>4546046.05697</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>5245131.264</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>881929.80106</v>
+        <v>983511.71036</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>858977.98042</v>
+        <v>990981.68602</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>1050787.48401</v>
+        <v>1153101.53069</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>1009241.26334</v>
+        <v>1131296.08347</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>1032105.003</v>
+        <v>1211555.91631</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>1020041.97967</v>
+        <v>1202401.6057</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>1061004.8239</v>
+        <v>1284012.89774</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>1311475.45077</v>
+        <v>1533815.29867</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>1494137.37722</v>
+        <v>1781970.36282</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>3087798.07468</v>
+        <v>3412011.54956</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>3718798.18626</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>4305611.346070001</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>4994768.454</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>13684.13252</v>
+        <v>14037.64214</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>6897.56717</v>
+        <v>7273.60346</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>10146.83675</v>
+        <v>10971.86376</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>10539.37527</v>
+        <v>11698.65707</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>10196.68131</v>
+        <v>14969.61259</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>15721.93088</v>
+        <v>18204.66965</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>11418.80571</v>
+        <v>13920.93399</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>10116.47974</v>
+        <v>11746.29129</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>9155.388499999999</v>
+        <v>14236.51002</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>39284.04188</v>
+        <v>42983.41558</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>40004.55288</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>43737.65173</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>75154.322</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>25028.87254</v>
+        <v>32120.76289</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>27211.30716</v>
+        <v>32600.46653</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>48858.40178</v>
+        <v>55273.80422</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>49833.90284</v>
+        <v>56249.3011</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>38045.4088</v>
+        <v>46509.14333000001</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>44498.10727</v>
+        <v>54120.92288</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>39822.74878</v>
+        <v>56095.43189</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>56027.14805</v>
+        <v>75190.05656</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>62381.56400999999</v>
+        <v>83209.69632999999</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>138847.41018</v>
+        <v>168613.46706</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>164563.15587</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>196697.05917</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>175208.488</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>4344.150199999999</v>
+        <v>4813.73975</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>2848.44719</v>
+        <v>3343.59015</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>5311.076730000001</v>
+        <v>6007.51441</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>4186.7201</v>
+        <v>5893.41534</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>2320.89139</v>
+        <v>3465.62082</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>2397.80585</v>
+        <v>3217.09655</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>1670.11314</v>
+        <v>2862.23763</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>1556.46687</v>
+        <v>2229.75703</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>1610.53567</v>
+        <v>3395.27304</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>4748.200440000001</v>
+        <v>7728.74928</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>5459.76646</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>6179.09031</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>26601.846</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>3568.19242</v>
+        <v>3929.74362</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>2376.89581</v>
+        <v>2548.85107</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>3393.81859</v>
+        <v>3906.56449</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>2913.09701</v>
+        <v>3428.30674</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>1549.26667</v>
+        <v>1907.83358</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>1866.89678</v>
+        <v>2144.06332</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>1240.12794</v>
+        <v>1846.57438</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>1297.78865</v>
+        <v>1744.31807</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>1380.37743</v>
+        <v>1677.37468</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>2992.57413</v>
+        <v>5613.19341</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>3324.15611</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>3949.05333</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>23944.16</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>686.70069</v>
+        <v>733.69593</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>344.00488</v>
+        <v>666.2949599999999</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>1814.09904</v>
+        <v>1937.67763</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>894.53768</v>
+        <v>1317.63457</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>464.36844</v>
+        <v>1197.93642</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>495.40231</v>
+        <v>1037.52647</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>125.80368</v>
+        <v>709.0905300000001</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>173.79979</v>
+        <v>278.69748</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>195.38742</v>
+        <v>211.80754</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>1301.53147</v>
+        <v>1643.49979</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>1456.08988</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1550.45329</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>1888.413</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>89.25708999999999</v>
+        <v>150.3002</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>127.5465</v>
+        <v>128.44412</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>103.1591</v>
+        <v>163.27229</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>379.08541</v>
+        <v>1147.47403</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>307.25628</v>
+        <v>359.85082</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>35.50675999999999</v>
+        <v>35.50676</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>304.18152</v>
+        <v>306.57272</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>84.87843000000001</v>
+        <v>206.74148</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>34.77082</v>
+        <v>1506.09082</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>454.09484</v>
+        <v>472.05608</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>679.52047</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>679.58369</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>769.273</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>916298.6559199999</v>
+        <v>1024856.37564</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>890238.4075600002</v>
+        <v>1027512.16586</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>1104481.64581</v>
+        <v>1213339.68426</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>1065427.82135</v>
+        <v>1193350.6263</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>1078026.20172</v>
+        <v>1269569.05141</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>1077864.21197</v>
+        <v>1271510.10168</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>1110576.26525</v>
+        <v>1351167.02599</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>1376062.61169</v>
+        <v>1618521.88949</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>1564063.79406</v>
+        <v>1876021.29613</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>3261181.3263</v>
+        <v>3615879.68292</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>3917906.12855</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>4539866.966659999</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>5218529.418</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>426994.92781</v>
+        <v>470224.02737</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>413250.43756</v>
+        <v>461822.0750299999</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>508174.95564</v>
+        <v>553264.08887</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>488154.83715</v>
+        <v>539482.01521</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>520043.30501</v>
+        <v>593911.56132</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>497776.825</v>
+        <v>574266.88541</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>514577.0280400001</v>
+        <v>618420.8005599999</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>636655.2889400001</v>
+        <v>744898.66634</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>707886.92854</v>
+        <v>836492.8891099999</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>1397139.8613</v>
+        <v>1520897.92394</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>1678704.06152</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1907307.82629</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>2270194.838</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>15963.51503</v>
+        <v>17991.85249</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>13613.48963</v>
+        <v>14819.55157</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>21952.81353</v>
+        <v>23185.92826</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>15782.58451</v>
+        <v>18944.20095</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>19344.9613</v>
+        <v>20584.85064</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>11510.33007</v>
+        <v>14084.21925</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>12880.24792</v>
+        <v>15533.12751</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>13140.91167</v>
+        <v>16948.74248</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>15934.06681</v>
+        <v>19663.00334</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>24787.38345</v>
+        <v>27024.46567</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>34552.00702</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>39612.59256</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>56420.331</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>111128.61413</v>
+        <v>116988.26899</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>103505.25696</v>
+        <v>110706.15907</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>126724.83326</v>
+        <v>135960.66084</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>118956.44135</v>
+        <v>126660.31203</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>117599.40317</v>
+        <v>123474.76619</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>78432.25658</v>
+        <v>87998.95852</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>68612.30423000001</v>
+        <v>80322.62707999999</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>111608.17217</v>
+        <v>123668.79122</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>76898.67834</v>
+        <v>92619.50863999999</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>212027.27686</v>
+        <v>229991.69996</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>217965.87944</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>247103.41978</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>352675.752</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>297522.82535</v>
+        <v>332239.76622</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>293450.36159</v>
+        <v>333268.38378</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>348557.77944</v>
+        <v>380899.31605</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>351870.39649</v>
+        <v>391885.51328</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>380491.7603</v>
+        <v>446735.2328700001</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>401999.44953</v>
+        <v>464122.39085</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>422767.71958</v>
+        <v>509256.2015</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>494146.70416</v>
+        <v>584621.26455</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>603390.93375</v>
+        <v>709265.56963</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1134878.21084</v>
+        <v>1234849.00168</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>1396608.38354</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1588744.10462</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>1815224.195</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>2379.9733</v>
+        <v>3004.13967</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>2681.32938</v>
+        <v>3027.98061</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>10939.52941</v>
+        <v>13218.18372</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>1545.4148</v>
+        <v>1991.98895</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>2607.18024</v>
+        <v>3116.71162</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>5834.788820000001</v>
+        <v>8061.316790000001</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>10316.75631</v>
+        <v>13308.84447</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>17759.50094</v>
+        <v>19659.86809</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>11663.24964</v>
+        <v>14944.8075</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>25446.99015</v>
+        <v>29032.75663</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>29577.79152</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>31847.70933</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>45874.56</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>489303.72811</v>
+        <v>554632.34827</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>476987.9699999999</v>
+        <v>565690.09083</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>596306.69017</v>
+        <v>660075.59539</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>577272.9842000001</v>
+        <v>653868.61109</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>557982.89671</v>
+        <v>675657.49009</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>580087.38697</v>
+        <v>697243.21627</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>595999.2372100001</v>
+        <v>732746.22543</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>739407.3227500001</v>
+        <v>873623.22315</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>856176.8655199999</v>
+        <v>1039528.40702</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1864041.465</v>
+        <v>2094981.75898</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>2239202.06703</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>2632559.14037</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>2948334.58</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>297956.1890900001</v>
+        <v>333515.7420200001</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>295522.70207</v>
+        <v>341623.68104</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>358383.2358</v>
+        <v>406727.08619</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>366165.64697</v>
+        <v>419632.16854</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>367737.31621</v>
+        <v>434144.3575700001</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>379288.4496699999</v>
+        <v>453258.63446</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>401835.35949</v>
+        <v>491795.19403</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>473872.42695</v>
+        <v>565712.5439800001</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>542888.4564</v>
+        <v>654601.1376899999</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1036140.12481</v>
+        <v>1150941.5041</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1258943.82354</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1459294.98748</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1610055.003</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>885.7438100000001</v>
+        <v>893.72664</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>1067.23927</v>
+        <v>1095.85687</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>1585.09536</v>
+        <v>1788.65606</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>1149.78727</v>
+        <v>1656.60631</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>1061.3522</v>
+        <v>1358.42918</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>793.29945</v>
+        <v>911.9792200000001</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>1073.71567</v>
+        <v>1096.90514</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>1476.53323</v>
+        <v>1477.81098</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>1682.36701</v>
+        <v>1683.49635</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>1969.70399</v>
+        <v>2226.94697</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>1541.39232</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1782.82938</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>2389.194</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>18272.03567</v>
+        <v>19639.08286</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>22692.00666</v>
+        <v>24745.11945</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>25557.80831</v>
+        <v>27463.67566</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>26724.1338</v>
+        <v>28865.50414</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>20963.68196</v>
+        <v>23648.74058</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>19762.25131</v>
+        <v>23217.48003</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>21818.99747</v>
+        <v>27183.92691</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>26837.29506</v>
+        <v>31116.4833</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>34494.18928</v>
+        <v>41063.80774</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>63040.80868000001</v>
+        <v>68682.54348000001</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>73555.19216999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>81485.29321</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>82607.548</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>278798.40961</v>
+        <v>312982.93252</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>271763.45614</v>
+        <v>315782.70472</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>331240.33213</v>
+        <v>377474.75447</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>338291.7259</v>
+        <v>389110.05809</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>345712.28205</v>
+        <v>409137.18781</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>358732.89891</v>
+        <v>429129.17521</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>378942.64635</v>
+        <v>463514.36198</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>445558.59866</v>
+        <v>533118.2497</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>506711.90011</v>
+        <v>611853.8336</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>971129.61214</v>
+        <v>1080032.01365</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1183847.23905</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1376026.86489</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1525058.261</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>191347.53902</v>
+        <v>221116.60625</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>181465.26793</v>
+        <v>224066.40979</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>237923.45437</v>
+        <v>253348.5092</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>211107.33723</v>
+        <v>234236.44255</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>190245.5805</v>
+        <v>241513.13252</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>200798.9373</v>
+        <v>243984.58181</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>194163.87772</v>
+        <v>240951.0314</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>265534.8958</v>
+        <v>307910.67917</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>313288.40912</v>
+        <v>384927.26933</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>827901.3401899999</v>
+        <v>944040.25488</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>980258.24349</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1173264.15289</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>1338279.577</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>10627.347</v>
+        <v>35492.83274000001</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>11558.38476</v>
+        <v>25178.65913</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>11661.47663</v>
+        <v>28782.23427</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>11317.05123</v>
+        <v>39143.30147</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>8441.685820000001</v>
+        <v>30202.62609000001</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>8845.38334</v>
+        <v>37847.38714</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>12295.87933</v>
+        <v>58434.82840000001</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>18892.10604</v>
+        <v>69090.15717000001</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>11497.43974</v>
+        <v>81418.67523000001</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>60716.80982</v>
+        <v>287891.44638</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>46858.27790000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>299079.2152</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>231218.219</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>245.21472</v>
+        <v>15289.50872</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>526.91053</v>
+        <v>3014.3858</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>636.4640900000001</v>
+        <v>1704.56208</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>386.45889</v>
+        <v>3093.41117</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>234.12481</v>
+        <v>490.81704</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>191.93076</v>
+        <v>3087.67287</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>259.07544</v>
+        <v>1509.22557</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>90.46764</v>
+        <v>1488.26515</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>1.36277</v>
+        <v>2892.49838</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>2023.31701</v>
+        <v>10291.30169</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>3234.22156</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>8888.21574</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>13705.008</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>1.49915</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>175.29405</v>
+        <v>256.14322</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>1.19458</v>
+        <v>6.74451</v>
       </c>
       <c r="F27" s="48" t="n">
         <v>19.15494</v>
@@ -1829,220 +1845,250 @@
         <v>104.8247</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>114.30438</v>
+        <v>3181.08648</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>102.65877</v>
+        <v>905.57294</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>542.38532</v>
+        <v>1356.51578</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>472.71404</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>763.82103</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>296.701</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>3512.17625</v>
+        <v>5650.932299999999</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>3871.46194</v>
+        <v>6129.36037</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>3762.32618</v>
+        <v>7596.89514</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>4381.55837</v>
+        <v>11073.71036</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>3516.22056</v>
+        <v>10215.62125</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>3884.93723</v>
+        <v>11290.23416</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>4049.6995</v>
+        <v>15528.70057</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>4175.50628</v>
+        <v>19769.90417</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>4472.64196</v>
+        <v>45858.48333</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>15451.19867</v>
+        <v>85022.12204999999</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>18971.72037</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>45023.67545</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>41621.622</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>622.4755799999999</v>
+        <v>622.61388</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>99.94702000000001</v>
+        <v>102.10528</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>196.82214</v>
+        <v>200.53439</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>249.06731</v>
+        <v>286.02754</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>29.48394</v>
+        <v>92.72798000000002</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>59.54323</v>
+        <v>68.88942</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>68.60292999999999</v>
+        <v>68.89991999999999</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>0.66299</v>
+        <v>0.66499</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>12.64472</v>
+        <v>52.34042</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>124.06119</v>
+        <v>293.79644</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>14.52592</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>184.77236</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>71.70099999999999</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>259.38053</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>560.6395600000001</v>
+        <v>594.26626</v>
       </c>
       <c r="E30" s="48" t="n">
         <v>51.89257</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>58.86855000000001</v>
+        <v>209.01975</v>
       </c>
       <c r="G30" s="48" t="n">
         <v>51.02334</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>17.81008</v>
+        <v>309.97843</v>
       </c>
       <c r="I30" s="48" t="n">
         <v>13.17343</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>11.62845</v>
+        <v>11.85291</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>50.46192</v>
+        <v>78.92369000000001</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>4749.10689</v>
+        <v>4758.0261</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>160.43562</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>179.81216</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>234.276</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>580.01671</v>
+        <v>726.94348</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>286.5482699999999</v>
+        <v>475.19312</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>776.8135600000001</v>
+        <v>1387.57472</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>439.2845</v>
+        <v>2858.87503</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>293.4583000000001</v>
+        <v>501.7474100000001</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>646.84048</v>
+        <v>1186.07834</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>334.53671</v>
+        <v>939.59438</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>258.95993</v>
+        <v>1018.8536</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>239.14989</v>
+        <v>996.3414900000001</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>771.4678</v>
+        <v>1957.33919</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>1247.1411</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>10433.71853</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>16672.148</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>2060.34425</v>
+        <v>4077.79663</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>1867.08483</v>
+        <v>4903.00534</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>3033.60417</v>
+        <v>5424.25132</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>1548.34769</v>
+        <v>5821.38091</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>1766.26249</v>
+        <v>4704.77958</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>1268.5462</v>
+        <v>6097.19834</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>3019.83896</v>
+        <v>14819.69032</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>2989.44478</v>
+        <v>15458.77521</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>2701.01754</v>
+        <v>12539.39061</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>28473.52968</v>
+        <v>162701.56736</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>11041.5119</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>209218.35895</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>97596.09</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>27.8199</v>
+        <v>67.81989999999999</v>
       </c>
       <c r="D33" s="48" t="n">
         <v>4.26904</v>
@@ -2060,7 +2106,7 @@
         <v>3.78958</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>4.22618</v>
+        <v>14.15288</v>
       </c>
       <c r="J33" s="48" t="n">
         <v>12.13256</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>113.84773</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>86.387</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>188.74149</v>
@@ -2087,13 +2138,13 @@
         <v>28.98789</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>17.23607</v>
+        <v>17.92807</v>
       </c>
       <c r="F34" s="48" t="n">
         <v>5.72236</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>61.15905</v>
+        <v>62.53834000000001</v>
       </c>
       <c r="H34" s="48" t="n">
         <v>13.05133</v>
@@ -2105,262 +2156,297 @@
         <v>22.68369</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>34.10001999999999</v>
+        <v>35.30802</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>2.15197</v>
+        <v>4.24321</v>
       </c>
       <c r="M34" s="48" t="n">
         <v>1.05251</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0.354</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>3129.67842</v>
+        <v>8607.596659999999</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>4137.24163</v>
+        <v>9670.94281</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>3135.10098</v>
+        <v>12341.82918</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>4159.31272</v>
+        <v>15706.72351</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>2374.10568</v>
+        <v>13967.5235</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>2456.01</v>
+        <v>15487.57022</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>4407.75575</v>
+        <v>25402.4209</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>11216.31534</v>
+        <v>28125.93841</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>3716.88093</v>
+        <v>17893.29513</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>8513.95391</v>
+        <v>21440.89718</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>11601.10715</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>24271.94074</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>60933.932</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>6946.479130000001</v>
+        <v>10791.96225</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>5377.67129</v>
+        <v>8769.90083</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>14313.61084</v>
+        <v>18407.97511</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>5772.04514</v>
+        <v>10990.01587</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>6653.334049999999</v>
+        <v>10964.79027</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>8725.394679999999</v>
+        <v>15332.61305</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>4591.66889</v>
+        <v>15145.05386</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>10516.81307</v>
+        <v>26900.68209</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>7036.29196</v>
+        <v>26275.95356</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>27334.66584</v>
+        <v>175138.23661</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>14620.38867</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>318091.0626</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>134372.618</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>372.6233</v>
+        <v>428.93623</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>592.0906699999999</v>
+        <v>652.32466</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>921.8208400000001</v>
+        <v>964.98587</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>533.13672</v>
+        <v>1432.57735</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>647.3555</v>
+        <v>805.11104</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>1075.74714</v>
+        <v>1140.33445</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>534.3684500000001</v>
+        <v>1092.86767</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>540.7737</v>
+        <v>586.1611799999999</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>1043.04112</v>
+        <v>1069.93444</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>1229.23715</v>
+        <v>1428.07744</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>950.6400699999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>1531.65627</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>1720.294</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>887.6879200000001</v>
+        <v>1116.33323</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>495.88268</v>
+        <v>683.72721</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>2195.77854</v>
+        <v>2214.41258</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>789.2527799999999</v>
+        <v>838.75587</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>393.42294</v>
+        <v>1171.70311</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>1217.16019</v>
+        <v>3468.74017</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>256.44171</v>
+        <v>1432.93296</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>5533.317410000001</v>
+        <v>5787.158850000001</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>1266.28987</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>1331.14379</v>
+        <v>1893.2224</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>1795.34488</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>3612.28568</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>1945.284</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>76.99119</v>
+        <v>77.94928</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>92.64891</v>
+        <v>101.96103</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>71.52661000000001</v>
+        <v>82.94011999999999</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>101.55553</v>
+        <v>124.17647</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>97.87725999999999</v>
+        <v>114.30406</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>177.74406</v>
+        <v>180.32434</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>497.75704</v>
+        <v>540.46158</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>26.35415</v>
+        <v>70.16494999999999</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>24.53662</v>
+        <v>3104.30916</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>460.79348</v>
+        <v>6429.447970000001</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>331.14452</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>1475.57317</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>6666.815</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>2510.60261</v>
+        <v>5287.706389999999</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>1895.5087</v>
+        <v>4424.07459</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>3119.6376</v>
+        <v>7042.65995</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>1494.5079</v>
+        <v>3863.27556</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>1775.33991</v>
+        <v>4599.41729</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>1032.55589</v>
+        <v>3902.83872</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>1474.92667</v>
+        <v>9937.16251</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>1328.75655</v>
+        <v>15738.48635</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>1564.36355</v>
+        <v>16432.47995</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>17494.11764</v>
+        <v>157092.86176</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>6399.20786</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>303258.2754099999</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>108297.623</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>21.38067</v>
+        <v>53.38066999999999</v>
       </c>
       <c r="D41" s="48" t="n">
         <v>4.517390000000001</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>24.88221</v>
+        <v>28.34647</v>
       </c>
       <c r="F41" s="48" t="n">
         <v>13.53837</v>
@@ -2369,7 +2455,7 @@
         <v>9.81677</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>12.26018</v>
+        <v>12.26065</v>
       </c>
       <c r="I41" s="48" t="n">
         <v>5.59616</v>
@@ -2384,25 +2470,30 @@
         <v>5.99963</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>8.135969999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>17.60748</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>10.71</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>65.56723</v>
+        <v>65.77369999999999</v>
       </c>
       <c r="D42" s="48" t="n">
         <v>38.71641</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>0.00238</v>
+        <v>2.46252</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>21.50664</v>
+        <v>46.85503</v>
       </c>
       <c r="G42" s="48" t="n">
         <v>0</v>
@@ -2411,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>24.05948</v>
+        <v>24.05951</v>
       </c>
       <c r="J42" s="48" t="n">
         <v>0.00155</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>0.26546</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>3011.62621</v>
+        <v>3761.88275</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>2258.30653</v>
+        <v>2864.57954</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>7979.96266</v>
+        <v>8072.167600000001</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>2818.5472</v>
+        <v>4670.83722</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>3729.52167</v>
+        <v>4264.438</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>5209.92722</v>
+        <v>6628.11472</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>1798.51938</v>
+        <v>2111.97347</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>3082.598730000001</v>
+        <v>4713.698230000001</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>3128.54517</v>
+        <v>4393.42451</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>6813.37023</v>
+        <v>8288.62349</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>5135.64991</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>8195.39913</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>15731.892</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>10075.58906</v>
+        <v>16552.3371</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>9609.69513</v>
+        <v>16422.86867</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>18872.36063</v>
+        <v>26863.41109</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>12000.70358</v>
+        <v>21242.29868</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>12710.93728</v>
+        <v>23969.13209</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>12695.03452</v>
+        <v>44744.24642999999</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>13848.76556</v>
+        <v>37456.3258</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>15977.86207</v>
+        <v>37264.38433</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>16842.20824</v>
+        <v>49504.76548</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>36357.91949</v>
+        <v>81346.50233</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>41801.25386</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>134224.47552</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>191004.069</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>9482.872599999999</v>
+        <v>14681.33824</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>8873.23475</v>
+        <v>14835.10666</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>9668.828949999999</v>
+        <v>16998.09027</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>11341.18862</v>
+        <v>20203.47359</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>10833.77625</v>
+        <v>21537.2041</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>10883.84365</v>
+        <v>41053.03792</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>12132.34719</v>
+        <v>33678.81813</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>15277.19439</v>
+        <v>34965.55996</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>15191.9339</v>
+        <v>46130.15913</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>34326.90123</v>
+        <v>73248.83682</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>40030.37662</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>122538.30652</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>185649.927</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>592.71646</v>
+        <v>1870.99886</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>736.46038</v>
+        <v>1587.76201</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>9203.53168</v>
+        <v>9865.320820000001</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>659.51496</v>
+        <v>1038.82509</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>1877.16103</v>
+        <v>2431.92799</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>1811.19087</v>
+        <v>3691.20851</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>1716.41837</v>
+        <v>3777.50767</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>700.6676799999999</v>
+        <v>2298.82437</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>1650.27434</v>
+        <v>3374.60635</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>2031.01826</v>
+        <v>8097.66551</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>1770.87724</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>11686.169</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>5354.142</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>184952.81783</v>
+        <v>229265.13964</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>178036.28627</v>
+        <v>224052.29942</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>216398.95953</v>
+        <v>236859.35727</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>204651.63974</v>
+        <v>241147.42947</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>179322.99499</v>
+        <v>236781.83625</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>188223.89144</v>
+        <v>221755.10947</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>188019.3226</v>
+        <v>246784.48014</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>257932.3267</v>
+        <v>312835.76992</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>300907.34866</v>
+        <v>390565.22552</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>824925.5646800001</v>
+        <v>975446.96232</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>970694.8788600001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>1020027.82997</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>1244121.109</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>10742.90816</v>
+        <v>13202.84077</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>12391.43654</v>
+        <v>15950.0654</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>13394.84124</v>
+        <v>21726.51142</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>20200.73928</v>
+        <v>29758.18011</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>18193.17479</v>
+        <v>41321.75378</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>17208.7356</v>
+        <v>41181.3711</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>19213.88934</v>
+        <v>38833.43219</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>63296.43946</v>
+        <v>79953.10795999999</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>22758.44718</v>
+        <v>196799.50276</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>39926.13781</v>
+        <v>64148.89911999999</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>58658.06854000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>122620.3445</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>105874.143</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>279.28238</v>
+        <v>354.1025000000001</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>182.90692</v>
+        <v>185.55029</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>134.78264</v>
+        <v>157.04112</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>302.72833</v>
+        <v>409.8122599999999</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>239.11091</v>
+        <v>241.8528</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>689.5393399999999</v>
+        <v>1935.02181</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>587.58307</v>
+        <v>815.3733</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>135.71064</v>
+        <v>240.10722</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>172.23884</v>
+        <v>332.64162</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>35.68057</v>
+        <v>492.85375</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>568.82424</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>700.53828</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>4853.501</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>10463.62578</v>
+        <v>12848.73827</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>12208.52962</v>
+        <v>15764.51511</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>13260.0586</v>
+        <v>21569.4703</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>19898.01095</v>
+        <v>29348.36785</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>17954.06388</v>
+        <v>41079.90098</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>16519.19626</v>
+        <v>39246.34929</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>18626.30627</v>
+        <v>38018.05888999999</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>63160.72882</v>
+        <v>79713.00073999999</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>22586.20834</v>
+        <v>196466.86114</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>39890.45724</v>
+        <v>63656.04537000001</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>58089.24430000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>121919.80622</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>101020.642</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>11932.38216</v>
+        <v>20750.19673</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>15681.95407</v>
+        <v>18727.35746</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>351325.58484</v>
+        <v>414178.3254</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>26496.12963</v>
+        <v>53643.89178</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>19569.14839</v>
+        <v>37218.3382</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>147481.65591</v>
+        <v>195877.09065</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>17897.15609</v>
+        <v>47975.54998</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>260554.12193</v>
+        <v>364418.77422</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>25630.62255</v>
+        <v>43561.40166</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>306736.06366</v>
+        <v>378415.48328</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>62714.65111</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>108052.13639</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>157187.75</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>927.5100699999999</v>
+        <v>929.7430000000001</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>289.1636</v>
+        <v>606.6294200000001</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>354.64446</v>
+        <v>356.04446</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>304.77252</v>
+        <v>12837.24611</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>201.78752</v>
+        <v>1390.14708</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>79.01078</v>
+        <v>2507.2206</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>197.27826</v>
+        <v>10359.49769</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>385.81263</v>
+        <v>3545.46174</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>238.96858</v>
+        <v>604.8418399999999</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>441.98002</v>
+        <v>941.7088199999999</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>529.01991</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>671.99936</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>1020.3</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>899.9278499999999</v>
+        <v>983.8473100000001</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>1232.68185</v>
+        <v>1618.5838</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>3082.49225</v>
+        <v>3320.424</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>851.78063</v>
+        <v>1876.68928</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>743.51886</v>
+        <v>826.3746000000001</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>922.9538200000001</v>
+        <v>1145.10447</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>660.7446199999999</v>
+        <v>2211.9302</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>699.8048899999999</v>
+        <v>1361.05795</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>960.7447199999999</v>
+        <v>1098.3782</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>2989.56291</v>
+        <v>3867.9182</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>1761.85525</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>2117.66829</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>1209.477</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>10104.94424</v>
+        <v>18836.60642</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>14160.10862</v>
+        <v>16502.14424</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>347888.44813</v>
+        <v>410501.85694</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>25339.57648</v>
+        <v>38929.95639</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>18623.84201</v>
+        <v>35001.81652</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>146479.69131</v>
+        <v>192224.76558</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>17039.13321</v>
+        <v>35404.12209</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>259468.50441</v>
+        <v>359512.25453</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>24430.90925</v>
+        <v>41858.18162</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>303304.52073</v>
+        <v>373605.85626</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>60423.77595</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>105262.46874</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>154957.973</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>183763.34383</v>
+        <v>221717.78368</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>174745.76874</v>
+        <v>221275.00736</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-121531.78407</v>
+        <v>-155592.45671</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>198356.24939</v>
+        <v>217261.7178</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>177947.02139</v>
+        <v>240885.25183</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>57950.97113</v>
+        <v>67059.38992</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>189336.05585</v>
+        <v>237642.36235</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>60674.64423</v>
+        <v>28370.10365999999</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>298035.1732899999</v>
+        <v>543803.3266199999</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>558115.6388300001</v>
+        <v>661180.3781600001</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>966638.2962900001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1034596.03808</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>1192807.502</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>37065.84131</v>
+        <v>44372.00387</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>36584.93894</v>
+        <v>46013.42096</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>44641.93493000001</v>
+        <v>51449.75878</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>41989.92838</v>
+        <v>50053.98328</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>40452.71553</v>
+        <v>54209.03068000001</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>40154.15798</v>
+        <v>52715.51764</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>43379.51826999999</v>
+        <v>61722.89965000001</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>54871.77752</v>
+        <v>73229.85245000001</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>63942.23666</v>
+        <v>89861.10311</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>173618.18247</v>
+        <v>211673.0848</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>213532.12428</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>265912.86112</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>307261.264</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>146697.50252</v>
+        <v>177345.77981</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>138160.8298</v>
+        <v>175261.5864</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-166173.719</v>
+        <v>-207042.21549</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>156366.32101</v>
+        <v>167207.73452</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>137494.30586</v>
+        <v>186676.22115</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>17796.81315</v>
+        <v>14343.87228</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>145956.53758</v>
+        <v>175919.4627</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>5802.866709999998</v>
+        <v>-44859.74879</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>234092.93663</v>
+        <v>453942.22351</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>384497.45636</v>
+        <v>449507.29336</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>753106.17201</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>768683.17696</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>885546.238</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>7016</v>
+        <v>7335</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>6974</v>
+        <v>7359</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>7072</v>
+        <v>7422</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>6883</v>
+        <v>7306</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>6556</v>
+        <v>7132</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>6249</v>
+        <v>6861</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>6237</v>
+        <v>6981</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>6536</v>
+        <v>7347</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>7389</v>
+        <v>8259</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>9818</v>
+        <v>10843</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>10887</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>12593</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>14278</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>